--- a/data/trans_orig/P1431-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{722D8FEC-D688-4870-AE4A-093557F3B2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E29359-0037-4991-A993-4337DCC4339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BE23C1A-2027-4418-96A5-25580B5405C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09471D69-66AF-4427-8E13-3A58708BA0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="168">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,331 +94,334 @@
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -430,25 +433,19 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>97,06%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -457,40 +454,40 @@
     <t>98,33%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -956,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645E0781-68F5-423F-82ED-4C1AC4273A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBFDFA6-7A2F-4733-8111-103D65703427}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1415,7 +1412,7 @@
         <v>3458</v>
       </c>
       <c r="N10" s="7">
-        <v>3686170</v>
+        <v>3686169</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1466,7 +1463,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1498,37 +1495,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1540,13 @@
         <v>1868</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1558,13 +1555,13 @@
         <v>3761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1579,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1591,13 @@
         <v>479313</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -1609,13 +1606,13 @@
         <v>454870</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -1627,10 +1624,10 @@
         <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1746,13 @@
         <v>40966</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -1764,7 +1761,7 @@
         <v>53002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>79</v>
@@ -1785,7 +1782,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1797,13 @@
         <v>3378816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>3240</v>
@@ -1815,13 +1812,13 @@
         <v>3496909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>6404</v>
@@ -1830,13 +1827,13 @@
         <v>6875725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,7 +1889,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E979BCFB-FC10-42DB-BC99-A28D29348062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A9396-1156-4305-AFAD-3C1D83C8E064}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2041,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2056,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2086,13 +2083,13 @@
         <v>11841</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -2101,13 +2098,13 @@
         <v>35977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -2116,13 +2113,13 @@
         <v>47818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2134,13 @@
         <v>742506</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7">
         <v>860</v>
@@ -2152,13 +2149,13 @@
         <v>958683</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>1609</v>
@@ -2167,13 +2164,13 @@
         <v>1701189</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2289,13 @@
         <v>25637</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -2307,13 +2304,13 @@
         <v>18700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -2322,13 +2319,13 @@
         <v>44337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2340,13 @@
         <v>2050748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1891</v>
@@ -2358,13 +2355,13 @@
         <v>1969600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>3818</v>
@@ -2373,13 +2370,13 @@
         <v>4020348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2468,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2483,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,10 +2495,10 @@
         <v>7994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>131</v>
@@ -2513,13 +2510,13 @@
         <v>2149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2549,13 +2546,13 @@
         <v>538892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -2564,13 +2561,13 @@
         <v>546991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1018</v>
@@ -2579,13 +2576,13 @@
         <v>1085884</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,10 +2704,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2719,13 +2716,13 @@
         <v>56826</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -2734,13 +2731,13 @@
         <v>102298</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2752,13 @@
         <v>3332146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2770,13 +2767,13 @@
         <v>3475274</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>6445</v>
@@ -2785,13 +2782,13 @@
         <v>6807420</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2844,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F42A8F-2514-47E7-A2FD-980FCDAA4633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC10399-0461-471F-9E44-3691AB365D22}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2883,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2990,10 +2987,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3005,10 +3002,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3020,10 +3017,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3047,22 +3044,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3098,22 +3095,22 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3196,10 +3193,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3211,10 +3208,10 @@
         <v>2249520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3226,10 +3223,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3268,22 +3265,22 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,22 +3316,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,10 +3399,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3417,10 +3414,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3432,10 +3429,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3459,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3474,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3489,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3507,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3525,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3540,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,10 +3605,10 @@
         <v>3376695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3623,10 +3620,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3638,10 +3635,10 @@
         <v>7176055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3680,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3695,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3746,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3799,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E29359-0037-4991-A993-4337DCC4339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD10F3BC-67E8-4688-8277-747CEC3348D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09471D69-66AF-4427-8E13-3A58708BA0CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29517B22-48B6-4192-972E-E81DE8F24F53}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="169">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,403 +94,406 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
   </si>
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
@@ -953,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBFDFA6-7A2F-4733-8111-103D65703427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FBECDF-FE38-49E7-8546-62ED24B2AFF7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1412,7 +1415,7 @@
         <v>3458</v>
       </c>
       <c r="N10" s="7">
-        <v>3686169</v>
+        <v>3686170</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1463,7 +1466,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1495,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1510,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1525,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1543,13 @@
         <v>1868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1570,13 +1573,13 @@
         <v>5629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,10 +1594,10 @@
         <v>479313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>69</v>
@@ -1621,10 +1624,10 @@
         <v>934183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>72</v>
@@ -1731,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,10 +1749,10 @@
         <v>40966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>77</v>
@@ -1803,7 +1806,7 @@
         <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>3240</v>
@@ -1812,13 +1815,13 @@
         <v>3496909</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>6404</v>
@@ -1827,13 +1830,13 @@
         <v>6875725</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,7 +1892,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A9396-1156-4305-AFAD-3C1D83C8E064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903DD597-D387-4826-98C8-ED0CEB2BD97E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1925,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2038,22 +2041,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2083,13 +2086,13 @@
         <v>11841</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -2098,13 +2101,13 @@
         <v>35977</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -2113,13 +2116,13 @@
         <v>47818</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2137,13 @@
         <v>742506</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H6" s="7">
         <v>860</v>
@@ -2149,13 +2152,13 @@
         <v>958683</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>1609</v>
@@ -2164,13 +2167,13 @@
         <v>1701189</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,10 +2292,10 @@
         <v>25637</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>115</v>
@@ -2325,7 +2328,7 @@
         <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2343,13 @@
         <v>2050748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>1891</v>
@@ -2355,13 +2358,13 @@
         <v>1969600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>3818</v>
@@ -2370,13 +2373,13 @@
         <v>4020348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2465,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2480,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2498,13 @@
         <v>7994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2510,13 +2513,13 @@
         <v>2149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2525,13 +2528,13 @@
         <v>10142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,10 +2549,10 @@
         <v>538892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>58</v>
@@ -2561,10 +2564,10 @@
         <v>546991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
@@ -2576,13 +2579,13 @@
         <v>1085884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2707,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2716,13 +2719,13 @@
         <v>56826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -2731,13 +2734,13 @@
         <v>102298</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2755,13 @@
         <v>3332146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H18" s="7">
         <v>3275</v>
@@ -2767,10 +2770,10 @@
         <v>3475274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>84</v>
@@ -2782,13 +2785,13 @@
         <v>6807420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +2847,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC10399-0461-471F-9E44-3691AB365D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB43B73-49E7-47F1-A749-5B9C3CA352F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2990,7 +2993,7 @@
         <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3005,7 +3008,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3020,7 +3023,7 @@
         <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3044,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3059,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3095,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3110,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3196,7 +3199,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3205,13 +3208,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3226,7 +3229,7 @@
         <v>69</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3265,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3280,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3331,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3361,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3402,7 +3405,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3417,7 +3420,7 @@
         <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3432,7 +3435,7 @@
         <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3456,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3471,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3486,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3522,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3605,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3623,7 +3626,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3632,13 +3635,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3677,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3692,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3743,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3758,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3785,7 +3788,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3799,7 +3802,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5CA496A-D0AA-443A-AF27-D0392AC419D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B60F0D5-B8C5-40B3-B389-21B0AF8BD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6622C5B9-CE73-401D-B27A-15841CF1FACD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{341205EA-F741-4897-9C69-54BBE7AE7EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149CD057-B103-4FFE-B05B-022B4469A203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3A38C-7DA7-45A8-9232-52E4C84D5AE5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1210,7 +1210,7 @@
         <v>3458</v>
       </c>
       <c r="N8" s="7">
-        <v>3686170</v>
+        <v>3686169</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1261,7 +1261,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1365,7 +1365,7 @@
         <v>845</v>
       </c>
       <c r="N11" s="7">
-        <v>934183</v>
+        <v>934184</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
@@ -1416,7 +1416,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44425226-59F1-46D4-9012-42531EB9BFDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391074DF-883F-4FE0-826F-2213BD9D92E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2116,7 +2116,7 @@
         <v>1018</v>
       </c>
       <c r="N11" s="7">
-        <v>1085884</v>
+        <v>1085885</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>120</v>
@@ -2167,7 +2167,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
